--- a/biology/Botanique/Sparganium/Sparganium.xlsx
+++ b/biology/Botanique/Sparganium/Sparganium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sparganium (les rubaniers) est un genre de plantes herbacées de la famille des Sparganiaceae selon la classification classique de Cronquist (1981)[1]. C'est le seul genre de cette famille.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sparganium (les rubaniers) est un genre de plantes herbacées de la famille des Sparganiaceae selon la classification classique de Cronquist (1981). C'est le seul genre de cette famille.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Sparganium vient du grec σπαργανιος / sparganios, «  enveloppé de langes ».
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification phylogénétique APG IV (2016)[2], le genre Sparganium fait partie de la famille des Typhaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification phylogénétique APG IV (2016), le genre Sparganium fait partie de la famille des Typhaceae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 mars 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 mars 2018) :
 Sparganium americanum Nutt.
 Sparganium androcladum (Engelm.) Morong
 Sparganium angustifolium Michx. - rubanier à feuilles étroites
@@ -603,7 +621,7 @@
 hybride Sparganium × oligocarpon Ångstr.
 hybride Sparganium × speirocephalum Neuman
 hybride Sparganium × splendens Meinsh.
-Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (17 juil. 2010) :
 Sparganium americanum Nutt. (1818)
 Sparganium amplexicaulium D.Yu, Bull. Bot. Res. (1992)
 Sparganium androcladum (Engelm.) Morong (1888)
